--- a/data/case1/14/Q_device_2.xlsx
+++ b/data/case1/14/Q_device_2.xlsx
@@ -62,42 +62,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.032328348313514478</v>
+        <v>-0.035489237677883236</v>
       </c>
       <c r="B1" s="0">
-        <v>0.032328348285150105</v>
+        <v>0.035489237657426967</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.021612945175622893</v>
+        <v>0.046977678774061955</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.021612945244876804</v>
+        <v>-0.046977678784773352</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.013550075638520221</v>
+        <v>0.029435063627344767</v>
       </c>
       <c r="B3" s="0">
-        <v>0.013550075565435958</v>
+        <v>-0.029435063657541057</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.023460918309753599</v>
+        <v>0.059235648910738584</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.023460918353242342</v>
+        <v>-0.059235648967865068</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.038763202496211992</v>
+        <v>-0.035507653392175632</v>
       </c>
       <c r="B5" s="0">
-        <v>0.038763202453820575</v>
+        <v>0.035507653330246615</v>
       </c>
     </row>
   </sheetData>
